--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -25,6 +25,38 @@
   </si>
   <si>
     <t>2020-07-04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natalie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buwei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yinuo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vincent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -382,27 +414,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -411,6 +461,26 @@
       </c>
       <c r="C2" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57,6 +57,22 @@
   </si>
   <si>
     <t>Vincent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -483,6 +499,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,15 +60,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2020-07-17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -430,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -501,19 +513,36 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +449,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -541,6 +545,9 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -89,6 +90,22 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruoxi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-08-02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -96,6 +113,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -119,15 +140,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,13 +162,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -446,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -464,7 +531,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +550,11 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -495,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -515,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -532,7 +602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -551,10 +621,198 @@
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1">
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9" style="5"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="18">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="18">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="18">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8">
+        <f>SUM(B2:B6)</f>
+        <v>50</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" ref="C7:H7" si="0">SUM(C2:C6)</f>
+        <v>20</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F2561-1F38-465F-8AE6-E9CC78AB4CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="26595" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -112,16 +121,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -134,7 +143,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -185,28 +194,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -227,7 +236,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -302,6 +311,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -337,6 +363,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,22 +555,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -644,17 +687,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="9" style="5"/>
+    <col min="1" max="1" width="16.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="8" width="7.85546875" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -766,16 +814,26 @@
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="8">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8">
+        <v>40</v>
+      </c>
       <c r="F6" s="8">
-        <v>20</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="G6" s="8">
+        <v>10</v>
+      </c>
       <c r="H6" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="18">
@@ -784,31 +842,31 @@
       </c>
       <c r="B7" s="8">
         <f>SUM(B2:B6)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C7" s="8">
         <f t="shared" ref="C7:H7" si="0">SUM(C2:C6)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F2561-1F38-465F-8AE6-E9CC78AB4CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="26595" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="26595" windowHeight="13680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,22 +114,26 @@
   </si>
   <si>
     <t>Total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haoxin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,7 +146,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -194,28 +197,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -236,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -311,23 +314,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -363,23 +349,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,7 +524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -564,13 +533,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -687,26 +656,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="8" width="7.85546875" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="7" max="9" width="7.875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -729,8 +698,11 @@
       <c r="H1" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18">
+      <c r="I1" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -745,8 +717,9 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="18">
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -767,8 +740,9 @@
         <v>10</v>
       </c>
       <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -787,8 +761,9 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="18">
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -809,10 +784,11 @@
         <v>20</v>
       </c>
       <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="18">
+      <c r="A6" s="7">
+        <v>44044</v>
       </c>
       <c r="B6" s="8">
         <v>20</v>
@@ -835,42 +811,75 @@
       <c r="H6" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="18">
-      <c r="A7" s="8" t="s">
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="18">
+      <c r="A7" s="7">
+        <v>44051</v>
+      </c>
+      <c r="B7" s="8">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="18">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8">
-        <f>SUM(B2:B6)</f>
-        <v>70</v>
-      </c>
-      <c r="C7" s="8">
-        <f t="shared" ref="C7:H7" si="0">SUM(C2:C6)</f>
+      <c r="B8" s="8">
+        <f>SUM(B2:B7)</f>
+        <v>90</v>
+      </c>
+      <c r="C8" s="8">
+        <f>SUM(C2:C7)</f>
+        <v>60</v>
+      </c>
+      <c r="D8" s="8">
+        <f>SUM(D2:D7)</f>
+        <v>110</v>
+      </c>
+      <c r="E8" s="8">
+        <f>SUM(E2:E7)</f>
+        <v>90</v>
+      </c>
+      <c r="F8" s="8">
+        <f>SUM(F2:F7)</f>
+        <v>90</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(G2:G7)</f>
+        <v>60</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" ref="C8:H8" si="0">SUM(H2:H6)</f>
         <v>40</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="I8" s="8">
+        <f>SUM(I2:I7)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -1,24 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED29088-16D8-4F72-80D1-4C3016860DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="26595" windowHeight="13680" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -124,16 +117,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +139,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -197,28 +190,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -239,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -314,6 +307,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -349,6 +359,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,7 +551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -533,13 +560,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -656,22 +683,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="10.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="9" width="7.875" style="5" customWidth="1"/>
+    <col min="7" max="9" width="7.85546875" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -840,39 +867,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="18">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:9" ht="18">
+      <c r="A8" s="7">
+        <v>44058</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="18">
+      <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8">
-        <f>SUM(B2:B7)</f>
+      <c r="B9" s="8">
+        <f t="shared" ref="B9:G9" si="0">SUM(B2:B7)</f>
         <v>90</v>
       </c>
-      <c r="C8" s="8">
-        <f>SUM(C2:C7)</f>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D8" s="8">
-        <f>SUM(D2:D7)</f>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="E8" s="8">
-        <f>SUM(E2:E7)</f>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="F8" s="8">
-        <f>SUM(F2:F7)</f>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G8" s="8">
-        <f>SUM(G2:G7)</f>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H8" s="8">
-        <f t="shared" ref="C8:H8" si="0">SUM(H2:H6)</f>
+      <c r="H9" s="8">
+        <f t="shared" ref="H9" si="1">SUM(H2:H6)</f>
         <v>40</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="8">
         <f>SUM(I2:I7)</f>
         <v>20</v>
       </c>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED29088-16D8-4F72-80D1-4C3016860DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B1027-2E09-48C5-B4DF-5F786E721941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -139,7 +139,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -216,7 +216,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -560,13 +560,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -684,21 +684,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="9" width="7.85546875" style="5" customWidth="1"/>
+    <col min="7" max="9" width="7.875" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -880,39 +880,62 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="18">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:9" ht="18">
+      <c r="A9" s="7">
+        <v>44065</v>
+      </c>
+      <c r="B9" s="8">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="18">
+      <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:G9" si="0">SUM(B2:B7)</f>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:G10" si="0">SUM(B2:B7)</f>
         <v>90</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H9" s="8">
-        <f t="shared" ref="H9" si="1">SUM(H2:H6)</f>
+      <c r="H10" s="8">
+        <f t="shared" ref="H10" si="1">SUM(H2:H6)</f>
         <v>40</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="8">
         <f>SUM(I2:I7)</f>
         <v>20</v>
       </c>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B1027-2E09-48C5-B4DF-5F786E721941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30CB8DF-801B-452C-BBAA-BFD0BFBABC5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,10 +684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -903,41 +903,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="18">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:9" ht="18">
+      <c r="A10" s="7">
+        <v>44072</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="18">
+      <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8">
-        <f t="shared" ref="B10:G10" si="0">SUM(B2:B7)</f>
-        <v>90</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B11" s="8">
+        <f>SUM(B2:B10)</f>
+        <v>110</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" ref="C11:I11" si="0">SUM(C2:C10)</f>
+        <v>70</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D10" s="8">
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="E10" s="8">
+        <v>40</v>
+      </c>
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" ref="H10" si="1">SUM(H2:H6)</f>
-        <v>40</v>
-      </c>
-      <c r="I10" s="8">
-        <f>SUM(I2:I7)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30CB8DF-801B-452C-BBAA-BFD0BFBABC5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -117,10 +116,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -190,33 +189,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -232,7 +231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -307,23 +306,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -359,23 +341,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -683,11 +648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="H17" sqref="H17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -910,10 +875,10 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10" s="8">
         <v>30</v>
@@ -936,11 +901,11 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB455B3-BAEE-46FE-AECC-B55D246A118B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,15 +112,21 @@
   <si>
     <t>Haoxin</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺课</t>
+  </si>
+  <si>
+    <t>Vincent = Tianhao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -189,33 +196,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -231,7 +238,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -306,6 +313,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -341,6 +365,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,7 +557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -648,11 +689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:I17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -667,7 +708,7 @@
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -694,7 +735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18">
+    <row r="2" spans="1:10" ht="18">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -711,7 +752,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="18">
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -734,7 +775,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="18">
+    <row r="4" spans="1:10" ht="18">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -755,7 +796,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="18">
+    <row r="5" spans="1:10" ht="18">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -778,7 +819,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="18">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="7">
         <v>44044</v>
       </c>
@@ -805,7 +846,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="18">
+    <row r="7" spans="1:10" ht="18">
       <c r="A7" s="7">
         <v>44051</v>
       </c>
@@ -832,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18">
+    <row r="8" spans="1:10" ht="18">
       <c r="A8" s="7">
         <v>44058</v>
       </c>
@@ -845,7 +886,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="18">
+    <row r="9" spans="1:10" ht="18">
       <c r="A9" s="7">
         <v>44065</v>
       </c>
@@ -868,7 +909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18">
+    <row r="10" spans="1:10" ht="18">
       <c r="A10" s="7">
         <v>44072</v>
       </c>
@@ -887,41 +928,70 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="18">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:10" ht="18">
+      <c r="A11" s="7">
+        <v>44079</v>
+      </c>
+      <c r="B11" s="8">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="18">
+      <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8">
-        <f>SUM(B2:B10)</f>
-        <v>110</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" ref="C11:I11" si="0">SUM(C2:C10)</f>
+      <c r="B12" s="8">
+        <f>SUM(B2:B11)</f>
+        <v>130</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" ref="C12:I12" si="0">SUM(C2:C10)</f>
         <v>70</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D12" s="8">
+        <f>SUM(D2:D11)</f>
+        <v>150</v>
+      </c>
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F12" s="8">
+        <f>SUM(F2:F11)</f>
+        <v>150</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB455B3-BAEE-46FE-AECC-B55D246A118B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2146F554-4BC1-4701-9F79-C2766F23A77A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -952,45 +952,58 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="18">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:10" ht="18">
+      <c r="A12" s="7">
+        <v>44086</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="18">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B13" s="8">
         <f>SUM(B2:B11)</f>
         <v>130</v>
       </c>
-      <c r="C12" s="8">
-        <f t="shared" ref="C12:I12" si="0">SUM(C2:C10)</f>
+      <c r="C13" s="8">
+        <f t="shared" ref="C13:I13" si="0">SUM(C2:C10)</f>
         <v>70</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <f>SUM(D2:D11)</f>
         <v>150</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="8">
         <f>SUM(F2:F11)</f>
         <v>150</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I13" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="5" t="s">
+    <row r="22" spans="4:4">
+      <c r="D22" s="5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2146F554-4BC1-4701-9F79-C2766F23A77A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460138DD-88ED-4368-9AA1-9261E454ADAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,7 +693,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -956,13 +956,27 @@
       <c r="A12" s="7">
         <v>44086</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="8">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8">
+        <v>10</v>
+      </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" ht="18">
@@ -970,32 +984,32 @@
         <v>22</v>
       </c>
       <c r="B13" s="8">
-        <f>SUM(B2:B11)</f>
-        <v>130</v>
+        <f>SUM(B2:B12)</f>
+        <v>150</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" ref="C13:I13" si="0">SUM(C2:C10)</f>
-        <v>70</v>
+        <f t="shared" ref="C13:I13" si="0">SUM(C2:C12)</f>
+        <v>90</v>
       </c>
       <c r="D13" s="8">
-        <f>SUM(D2:D11)</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>170</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F13" s="8">
-        <f>SUM(F2:F11)</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>170</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="0"/>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460138DD-88ED-4368-9AA1-9261E454ADAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1899B9D1-3759-43D9-BF5D-FBCD53DFD5EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,6 +118,42 @@
   </si>
   <si>
     <t>Vincent = Tianhao</t>
+  </si>
+  <si>
+    <t>Utilised Points</t>
+  </si>
+  <si>
+    <t>Yifan</t>
+  </si>
+  <si>
+    <t>B组礼品是故宫锦色笔记本和扑克牌套装。这本锦色系列石青笔记本的封面出自清宫藏金鱼纹样衣料。大吉扑克牌内印中国传统吉祥图案，非常精美寓意吉祥，特别适合传统节日与家人共同娱乐。</t>
+  </si>
+  <si>
+    <t>A组礼品是北京故宫锦色笔记本和时光之间文件夹套装。这本锦色系列石青笔记本的封面出自王希孟的著名作品千里江山图卷。而时光之间文件夹的灵感则来自故宫博物院藏铜镀金珐琅围屏式钟</t>
+  </si>
+  <si>
+    <t>C组礼品牡丹花蝶纹胶带同样来自故宫博物院。图样取自中国传统十二月花神衣之四月花神衣牡丹花。</t>
+  </si>
+  <si>
+    <t>D组礼品是修正带一支，特点是他比较长，有12米，可以用很长时间。</t>
+  </si>
+  <si>
+    <t>E组礼品是Pentel水笔一支，出水流畅颜色鲜艳男女生皆宜。</t>
+  </si>
+  <si>
+    <t>FGH组礼品是ZEBRA限量版荧光记号笔一支，分粗细两个笔头，可爱马卡龙配色。请大家注意，每组礼品是一支笔，领取时请注明要哪个颜色。</t>
+  </si>
+  <si>
+    <t>朕就是这样汉子折扇，雍正御笔，礼盒包装，拿在手中行走江湖，虎虎生风霸气侧漏。</t>
+  </si>
+  <si>
+    <t>Redeemed</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Yixuan</t>
   </si>
 </sst>
 </file>
@@ -690,10 +726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -979,45 +1015,185 @@
       </c>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="18">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:10" ht="18">
+      <c r="A13" s="7">
+        <v>44093</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="18">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8">
-        <f>SUM(B2:B12)</f>
+      <c r="B14" s="8">
+        <f>SUM(B2:B13)</f>
         <v>150</v>
       </c>
-      <c r="C13" s="8">
-        <f t="shared" ref="C13:I13" si="0">SUM(C2:C12)</f>
-        <v>90</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C14" s="8">
+        <f t="shared" ref="C14:I14" si="0">SUM(C2:C13)</f>
+        <v>110</v>
+      </c>
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="5" t="s">
+    <row r="15" spans="1:10" ht="18">
+      <c r="A15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="8">
+        <v>100</v>
+      </c>
+      <c r="C15" s="8">
+        <v>100</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18">
+      <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="8">
+        <f>B14-B15</f>
+        <v>50</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" ref="C16:I16" si="1">C14-C15</f>
+        <v>10</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18">
+      <c r="A21" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18">
+      <c r="A22" s="7">
+        <v>44087</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8">
+        <v>100</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="18">
+      <c r="A23" s="7">
+        <v>44087</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="8">
+        <v>100</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18">
+      <c r="D24" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18">
+      <c r="D25" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18">
+      <c r="D26" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18">
+      <c r="D27" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18">
+      <c r="D28" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1899B9D1-3759-43D9-BF5D-FBCD53DFD5EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279FBCDD-B875-4DA1-9393-A15F19EA4284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,7 +729,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1021,10 +1021,12 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <v>10</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1040,7 +1042,7 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" ref="C14:I14" si="0">SUM(C2:C13)</f>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="0"/>
@@ -1048,7 +1050,7 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="0"/>
@@ -1106,7 +1108,7 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" ref="C16:I16" si="1">C14-C15</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
@@ -1114,7 +1116,7 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="1"/>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279FBCDD-B875-4DA1-9393-A15F19EA4284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -159,10 +158,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -232,33 +231,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -274,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -349,23 +348,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -401,23 +383,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,7 +558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -725,11 +690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1019,18 +984,28 @@
       <c r="A13" s="7">
         <v>44093</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <v>10</v>
+      </c>
       <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
       <c r="E13" s="8">
         <v>10</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="8">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" ht="18">
       <c r="A14" s="8" t="s">
@@ -1038,7 +1013,7 @@
       </c>
       <c r="B14" s="8">
         <f>SUM(B2:B13)</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C14" s="8">
         <f t="shared" ref="C14:I14" si="0">SUM(C2:C13)</f>
@@ -1046,7 +1021,7 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
@@ -1054,11 +1029,11 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="0"/>
@@ -1066,7 +1041,7 @@
       </c>
       <c r="I14" s="8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18">
@@ -1104,7 +1079,7 @@
       </c>
       <c r="B16" s="8">
         <f>B14-B15</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" ref="C16:I16" si="1">C14-C15</f>
@@ -1112,7 +1087,7 @@
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
@@ -1120,11 +1095,11 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
@@ -1132,7 +1107,7 @@
       </c>
       <c r="I16" s="8">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18">

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -691,7 +691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
@@ -1007,170 +1007,199 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="18">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:10" ht="18">
+      <c r="A14" s="7">
+        <v>44121</v>
+      </c>
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="18">
+      <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
-        <f>SUM(B2:B13)</f>
-        <v>160</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" ref="C14:I14" si="0">SUM(C2:C13)</f>
+      <c r="B15" s="8">
+        <f>SUM(B2:B14)</f>
+        <v>170</v>
+      </c>
+      <c r="C15" s="8">
+        <f>SUM(C2:C14)</f>
         <v>100</v>
       </c>
-      <c r="D14" s="8">
-        <f t="shared" si="0"/>
+      <c r="D15" s="8">
+        <f>SUM(D2:D14)</f>
         <v>180</v>
       </c>
-      <c r="E14" s="8">
-        <f t="shared" si="0"/>
+      <c r="E15" s="8">
+        <f>SUM(E2:E14)</f>
         <v>150</v>
       </c>
-      <c r="F14" s="8">
-        <f t="shared" si="0"/>
+      <c r="F15" s="8">
+        <f>SUM(F2:F14)</f>
         <v>190</v>
       </c>
-      <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="0"/>
+      <c r="G15" s="8">
+        <f>SUM(G2:G14)</f>
+        <v>100</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" ref="C15:I15" si="0">SUM(H2:H13)</f>
         <v>50</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18">
-      <c r="A15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="8">
-        <v>100</v>
-      </c>
-      <c r="C15" s="8">
-        <v>100</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-    </row>
     <row r="16" spans="1:10" ht="18">
       <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8">
+        <v>100</v>
+      </c>
+      <c r="C16" s="8">
+        <v>100</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18">
+      <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="8">
-        <f>B14-B15</f>
-        <v>60</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" ref="C16:I16" si="1">C14-C15</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="B17" s="8">
+        <f>B15-B16</f>
+        <v>70</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" ref="C17:I17" si="1">C15-C16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="H16" s="8">
+        <v>100</v>
+      </c>
+      <c r="H17" s="8">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="8">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="9" t="s">
+    <row r="22" spans="1:9" ht="18">
+      <c r="A22" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="7">
-        <v>44087</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="8">
-        <v>100</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="18">
       <c r="A23" s="7">
         <v>44087</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C23" s="8">
         <v>100</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="18">
+      <c r="A24" s="7">
+        <v>44087</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="8">
+        <v>100</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="18">
-      <c r="D24" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18">
       <c r="D25" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="D26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="D27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="D28" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18">
+      <c r="D29" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="5" t="s">
+    <row r="37" spans="4:4">
+      <c r="D37" s="5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -694,7 +694,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G14" s="8">
         <v>10</v>
@@ -1041,35 +1041,35 @@
         <v>22</v>
       </c>
       <c r="B15" s="8">
-        <f>SUM(B2:B14)</f>
+        <f t="shared" ref="B15:G15" si="0">SUM(B2:B14)</f>
         <v>170</v>
       </c>
       <c r="C15" s="8">
-        <f>SUM(C2:C14)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D15" s="8">
-        <f>SUM(D2:D14)</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="E15" s="8">
-        <f>SUM(E2:E14)</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="F15" s="8">
-        <f>SUM(F2:F14)</f>
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
       <c r="G15" s="8">
-        <f>SUM(G2:G14)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" ref="C15:I15" si="0">SUM(H2:H13)</f>
+        <f t="shared" ref="H15:I15" si="1">SUM(H2:H13)</f>
         <v>50</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -1111,31 +1111,31 @@
         <v>70</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:I17" si="1">C15-C16</f>
+        <f t="shared" ref="C17:I17" si="2">C15-C16</f>
         <v>0</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="1"/>
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>210</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>Yixuan</t>
+  </si>
+  <si>
+    <t>Yinuo:紫色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -691,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1093,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16" s="8">
         <v>0</v>
@@ -1102,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18">
+    <row r="17" spans="1:21" ht="18">
       <c r="A17" s="8" t="s">
         <v>36</v>
       </c>
@@ -1128,7 +1132,7 @@
       </c>
       <c r="G17" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="2"/>
@@ -1139,12 +1143,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18">
+    <row r="22" spans="1:21" ht="18">
       <c r="A22" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18">
+    <row r="23" spans="1:21" ht="18">
       <c r="A23" s="7">
         <v>44087</v>
       </c>
@@ -1159,7 +1163,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="18">
+    <row r="24" spans="1:21" ht="18">
       <c r="A24" s="7">
         <v>44087</v>
       </c>
@@ -1173,27 +1177,39 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18">
+    <row r="25" spans="1:21" ht="18">
       <c r="D25" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18">
+    <row r="26" spans="1:21" ht="18">
       <c r="D26" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18">
+    <row r="27" spans="1:21" ht="18">
       <c r="D27" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18">
+    <row r="28" spans="1:21" ht="18">
+      <c r="A28" s="7">
+        <v>44128</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="8">
+        <v>100</v>
+      </c>
       <c r="D28" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="18">
+      <c r="U28" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="18">
       <c r="D29" s="7" t="s">
         <v>34</v>
       </c>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -706,10 +706,11 @@
     <col min="1" max="1" width="16.875" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="10.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="9" width="7.875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="7.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="7.875" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -722,22 +723,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18">
@@ -765,9 +766,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="8">
-        <v>10</v>
-      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="8">
         <v>10</v>
       </c>
@@ -777,7 +776,9 @@
       <c r="G3" s="8">
         <v>10</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="8">
+        <v>10</v>
+      </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="18">
@@ -790,15 +791,15 @@
       <c r="C4" s="8">
         <v>10</v>
       </c>
-      <c r="D4" s="8">
-        <v>20</v>
-      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8">
         <v>20</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8">
+        <v>20</v>
+      </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="18">
@@ -809,19 +810,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8">
-        <v>20</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="8">
         <v>20</v>
       </c>
       <c r="F5" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G5" s="8">
         <v>20</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <v>10</v>
+      </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="18">
@@ -834,22 +835,22 @@
       <c r="C6" s="8">
         <v>20</v>
       </c>
-      <c r="D6" s="8">
-        <v>40</v>
-      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F6" s="8">
         <v>40</v>
       </c>
       <c r="G6" s="8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H6" s="8">
         <v>40</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="18">
       <c r="A7" s="7">
@@ -868,15 +869,15 @@
         <v>20</v>
       </c>
       <c r="F7" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G7" s="8">
         <v>20</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
-        <v>20</v>
-      </c>
+      <c r="H7" s="8">
+        <v>10</v>
+      </c>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="18">
       <c r="A8" s="7">
@@ -901,18 +902,18 @@
       <c r="C9" s="8">
         <v>10</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
-        <v>10</v>
-      </c>
+      <c r="D9" s="8">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8">
+        <v>10</v>
+      </c>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="18">
       <c r="A10" s="7">
@@ -920,17 +921,17 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="8">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8">
-        <v>20</v>
-      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="8">
+        <v>20</v>
+      </c>
+      <c r="G10" s="8">
+        <v>20</v>
+      </c>
+      <c r="H10" s="8">
         <v>30</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="18">
@@ -941,17 +942,17 @@
         <v>20</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
+        <v>10</v>
+      </c>
       <c r="F11" s="8">
         <v>20</v>
       </c>
-      <c r="G11" s="8">
-        <v>10</v>
-      </c>
-      <c r="H11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <v>20</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="4" t="s">
         <v>24</v>
@@ -967,22 +968,22 @@
       <c r="C12" s="8">
         <v>20</v>
       </c>
-      <c r="D12" s="8">
-        <v>20</v>
-      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8">
         <v>20</v>
       </c>
       <c r="G12" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H12" s="8">
-        <v>10</v>
-      </c>
-      <c r="I12" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="I12" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="18">
       <c r="A13" s="7">
@@ -1001,15 +1002,15 @@
         <v>10</v>
       </c>
       <c r="F13" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G13" s="8">
         <v>10</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8">
-        <v>10</v>
-      </c>
+      <c r="H13" s="8">
+        <v>20</v>
+      </c>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="18">
       <c r="A14" s="7">
@@ -1025,197 +1026,276 @@
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="18">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:10" ht="18">
+      <c r="A15" s="7">
+        <v>44128</v>
+      </c>
+      <c r="B15" s="8">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18">
+      <c r="A16" s="7">
+        <v>44135</v>
+      </c>
+      <c r="B16" s="8">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="18">
+      <c r="A17" s="7">
+        <v>44142</v>
+      </c>
+      <c r="B17" s="8">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
+        <v>20</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" s="3" customFormat="1" ht="18">
+      <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8">
-        <f t="shared" ref="B15:G15" si="0">SUM(B2:B14)</f>
-        <v>170</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" si="0"/>
+      <c r="B18" s="8">
+        <f>SUM(B2:B17)</f>
+        <v>230</v>
+      </c>
+      <c r="C18" s="8">
+        <f>SUM(C2:C17)</f>
+        <v>140</v>
+      </c>
+      <c r="D18" s="8">
+        <f>SUM(D2:D13)</f>
+        <v>40</v>
+      </c>
+      <c r="E18" s="8">
+        <f>SUM(E2:E17)</f>
+        <v>130</v>
+      </c>
+      <c r="F18" s="8">
+        <f>SUM(F2:F16)</f>
+        <v>180</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(G2:G16)</f>
+        <v>150</v>
+      </c>
+      <c r="H18" s="8">
+        <f>SUM(H2:H17)</f>
+        <v>230</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" ref="I18" si="0">SUM(I2:I13)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="18">
+      <c r="A19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="8">
         <v>100</v>
       </c>
-      <c r="D15" s="8">
-        <f t="shared" si="0"/>
+      <c r="C19" s="8">
+        <v>100</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>100</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="18">
+      <c r="A20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="8">
+        <f>B18-B19</f>
+        <v>130</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" ref="C20:I20" si="1">C18-C19</f>
+        <v>40</v>
+      </c>
+      <c r="D20" s="8">
+        <f>D18-D19</f>
+        <v>40</v>
+      </c>
+      <c r="E20" s="8">
+        <f>E18-E19</f>
+        <v>30</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
+      <c r="G20" s="8">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="0"/>
+      <c r="H20" s="8">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="18">
+      <c r="A25" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="18">
+      <c r="A26" s="7">
+        <v>44087</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="8">
         <v>100</v>
       </c>
-      <c r="H15" s="8">
-        <f t="shared" ref="H15:I15" si="1">SUM(H2:H13)</f>
-        <v>50</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18">
-      <c r="A16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="D26" s="4"/>
+      <c r="F26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="18">
+      <c r="A27" s="7">
+        <v>44087</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="8">
         <v>100</v>
       </c>
-      <c r="C16" s="8">
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="18">
+      <c r="F28" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="18">
+      <c r="F29" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="18">
+      <c r="F30" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="18">
+      <c r="A31" s="7">
+        <v>44128</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="8">
         <v>100</v>
       </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>100</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="18">
-      <c r="A17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="8">
-        <f>B15-B16</f>
-        <v>70</v>
-      </c>
-      <c r="C17" s="8">
-        <f t="shared" ref="C17:I17" si="2">C15-C16</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="18">
-      <c r="A22" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="18">
-      <c r="A23" s="7">
-        <v>44087</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="8">
-        <v>100</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:21" ht="18">
-      <c r="A24" s="7">
-        <v>44087</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="8">
-        <v>100</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="18">
-      <c r="D25" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="18">
-      <c r="D26" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="18">
-      <c r="D27" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="18">
-      <c r="A28" s="7">
-        <v>44128</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="8">
-        <v>100</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="U31" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="18">
-      <c r="D29" s="7" t="s">
+    <row r="32" spans="1:21" ht="18">
+      <c r="F32" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="5" t="s">
+    <row r="40" spans="6:6">
+      <c r="F40" s="5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1120,127 +1120,133 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" ht="18">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:21" ht="18">
+      <c r="A18" s="7">
+        <v>44149</v>
+      </c>
+      <c r="B18" s="8">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <v>20</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
+        <v>20</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:21" s="3" customFormat="1" ht="18">
+      <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="8">
-        <f>SUM(B2:B17)</f>
-        <v>230</v>
-      </c>
-      <c r="C18" s="8">
-        <f>SUM(C2:C17)</f>
-        <v>140</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="B19" s="8">
+        <f>SUM(B2:B18)</f>
+        <v>250</v>
+      </c>
+      <c r="C19" s="8">
+        <f>SUM(C2:C18)</f>
+        <v>160</v>
+      </c>
+      <c r="D19" s="8">
         <f>SUM(D2:D13)</f>
         <v>40</v>
       </c>
-      <c r="E18" s="8">
-        <f>SUM(E2:E17)</f>
-        <v>130</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="E19" s="8">
+        <f>SUM(E2:E18)</f>
+        <v>150</v>
+      </c>
+      <c r="F19" s="8">
         <f>SUM(F2:F16)</f>
         <v>180</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <f>SUM(G2:G16)</f>
         <v>150</v>
       </c>
-      <c r="H18" s="8">
-        <f>SUM(H2:H17)</f>
-        <v>230</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" ref="I18" si="0">SUM(I2:I13)</f>
+      <c r="H19" s="8">
+        <f>SUM(H2:H18)</f>
+        <v>250</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" ref="I19" si="0">SUM(I2:I13)</f>
         <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="18">
-      <c r="A19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="8">
-        <v>100</v>
-      </c>
-      <c r="C19" s="8">
-        <v>100</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>100</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="18">
       <c r="A20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8">
+        <v>100</v>
+      </c>
+      <c r="C20" s="8">
+        <v>100</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>100</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="18">
+      <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="8">
-        <f>B18-B19</f>
-        <v>130</v>
-      </c>
-      <c r="C20" s="8">
-        <f t="shared" ref="C20:I20" si="1">C18-C19</f>
+      <c r="B21" s="8">
+        <f>B19-B20</f>
+        <v>150</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:I21" si="1">C19-C20</f>
+        <v>60</v>
+      </c>
+      <c r="D21" s="8">
+        <f>D19-D20</f>
         <v>40</v>
       </c>
-      <c r="D20" s="8">
-        <f>D18-D19</f>
-        <v>40</v>
-      </c>
-      <c r="E20" s="8">
-        <f>E18-E19</f>
-        <v>30</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="E21" s="8">
+        <f>E19-E20</f>
+        <v>50</v>
+      </c>
+      <c r="F21" s="8">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="8">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="8">
         <f t="shared" si="1"/>
-        <v>230</v>
-      </c>
-      <c r="I20" s="8">
+        <v>250</v>
+      </c>
+      <c r="I21" s="8">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="18">
-      <c r="A25" s="9" t="s">
+    <row r="26" spans="1:21" ht="18">
+      <c r="A26" s="9" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="18">
-      <c r="A26" s="7">
-        <v>44087</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="8">
-        <v>100</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="F26" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="18">
@@ -1248,54 +1254,69 @@
         <v>44087</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C27" s="8">
         <v>100</v>
       </c>
+      <c r="D27" s="4"/>
       <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="18">
+      <c r="A28" s="7">
+        <v>44087</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="8">
+        <v>100</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="18">
-      <c r="F28" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="18">
       <c r="F29" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="18">
       <c r="F30" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="18">
+      <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="18">
-      <c r="A31" s="7">
+    <row r="32" spans="1:21" ht="18">
+      <c r="A32" s="7">
         <v>44128</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C32" s="8">
         <v>100</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="7" t="s">
+      <c r="U32" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="18">
-      <c r="F32" s="7" t="s">
+    <row r="33" spans="6:6" ht="18">
+      <c r="F33" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="5" t="s">
+    <row r="41" spans="6:6">
+      <c r="F41" s="5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -293,13 +293,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>409020</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>75648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>44142</v>
       </c>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>44149</v>
       </c>
@@ -1063,228 +1063,251 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B19" s="3">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1">
+      <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3">
-        <f>SUM(B2:B18)</f>
-        <v>250</v>
-      </c>
-      <c r="C19" s="3">
-        <f>SUM(C2:C18)</f>
-        <v>160</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="B20" s="3">
+        <f>SUM(B2:B19)</f>
+        <v>270</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SUM(C2:C19)</f>
+        <v>180</v>
+      </c>
+      <c r="D20" s="3">
         <f>SUM(D2:D13)</f>
         <v>40</v>
       </c>
-      <c r="E19" s="3">
-        <f>SUM(E2:E18)</f>
-        <v>150</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="E20" s="3">
+        <f>SUM(E2:E19)</f>
+        <v>170</v>
+      </c>
+      <c r="F20" s="3">
         <f>SUM(F2:F16)</f>
         <v>180</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <f>SUM(G2:G16)</f>
         <v>150</v>
       </c>
-      <c r="H19" s="3">
-        <f>SUM(H2:H18)</f>
-        <v>250</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" ref="I19" si="0">SUM(I2:I13)</f>
+      <c r="H20" s="3">
+        <f>SUM(H2:H19)</f>
+        <v>270</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" ref="I20" si="0">SUM(I2:I13)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>100</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>100</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="3" t="s">
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
-        <f>B19-B20</f>
-        <v>150</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" ref="C21:I21" si="1">C19-C20</f>
-        <v>60</v>
-      </c>
-      <c r="D21" s="3">
-        <f>D19-D20</f>
+      <c r="B22" s="3">
+        <f>B20-B21</f>
+        <v>170</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:I22" si="1">C20-C21</f>
+        <v>80</v>
+      </c>
+      <c r="D22" s="3">
+        <f>D20-D21</f>
         <v>40</v>
       </c>
-      <c r="E21" s="3">
-        <f>E19-E20</f>
-        <v>50</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E22" s="3">
+        <f>E20-E21</f>
+        <v>70</v>
+      </c>
+      <c r="F22" s="3">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="I21" s="3">
+        <v>270</v>
+      </c>
+      <c r="I22" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="2">
-        <v>44087</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="3">
-        <v>100</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="F27" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>44087</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3">
         <v>100</v>
       </c>
+      <c r="D28" s="7"/>
       <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3">
+        <v>100</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
-      <c r="F29" s="2" t="s">
+    <row r="30" spans="1:9">
+      <c r="F30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="F30" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:9">
       <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="2">
+    <row r="33" spans="1:21">
+      <c r="A33" s="2">
         <v>44128</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C33" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="U33" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="2" t="s">
+    <row r="34" spans="1:21">
+      <c r="F34" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="1" t="s">
+    <row r="42" spans="1:21">
+      <c r="F42" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="5:8">
-      <c r="E53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="54" spans="5:8">
       <c r="E54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8">
+      <c r="E55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="8" t="s">
+      <c r="G55" s="7"/>
+      <c r="H55" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="5:8">
-      <c r="H55" s="1" t="s">
+    <row r="56" spans="5:8">
+      <c r="H56" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="5:8">
-      <c r="E76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="77" spans="5:8">
       <c r="E77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="5:8">
+      <c r="E78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H54" r:id="rId1"/>
+    <hyperlink ref="H55" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -293,13 +293,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>409020</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>75648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U78"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1086,228 +1086,270 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B20" s="3">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
+        <v>44170</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <v>20</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="3">
-        <f>SUM(B2:B19)</f>
-        <v>270</v>
-      </c>
-      <c r="C20" s="3">
-        <f>SUM(C2:C19)</f>
-        <v>180</v>
-      </c>
-      <c r="D20" s="3">
-        <f>SUM(D2:D13)</f>
-        <v>40</v>
-      </c>
-      <c r="E20" s="3">
-        <f>SUM(E2:E19)</f>
-        <v>170</v>
-      </c>
-      <c r="F20" s="3">
-        <f>SUM(F2:F16)</f>
-        <v>180</v>
-      </c>
-      <c r="G20" s="3">
-        <f>SUM(G2:G16)</f>
+      <c r="B22" s="3">
+        <f>SUM(B2:B21)</f>
+        <v>310</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:I22" si="0">SUM(C2:C21)</f>
+        <v>220</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H20" s="3">
-        <f>SUM(H2:H19)</f>
-        <v>270</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" ref="I20" si="0">SUM(I2:I13)</f>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B23" s="3">
         <v>100</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C23" s="3">
         <v>100</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3">
-        <f>B20-B21</f>
-        <v>170</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" ref="C22:I22" si="1">C20-C21</f>
-        <v>80</v>
-      </c>
-      <c r="D22" s="3">
-        <f>D20-D21</f>
-        <v>40</v>
-      </c>
-      <c r="E22" s="3">
-        <f>E20-E21</f>
-        <v>70</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="B24" s="3">
+        <f>B22-B23</f>
+        <v>210</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24:I24" si="1">C22-C23</f>
+        <v>120</v>
+      </c>
+      <c r="D24" s="3">
+        <f>D22-D23</f>
+        <v>60</v>
+      </c>
+      <c r="E24" s="3">
+        <f>E22-E23</f>
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H24" s="3">
         <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="I22" s="3">
+        <v>290</v>
+      </c>
+      <c r="I24" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="4" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2">
+    <row r="30" spans="1:9">
+      <c r="A30" s="2">
         <v>44087</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C30" s="3">
         <v>100</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="F28" s="2" t="s">
+      <c r="D30" s="7"/>
+      <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2">
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
         <v>44087</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C31" s="3">
         <v>100</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="F30" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="F31" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="F32" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="2">
-        <v>44128</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="F34" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="2">
+        <v>44128</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="F36" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
-      <c r="F42" s="1" t="s">
+    <row r="44" spans="1:21">
+      <c r="F44" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="5:8">
-      <c r="E54" s="1" t="s">
+    <row r="56" spans="5:8">
+      <c r="E56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="1" t="s">
+      <c r="G56" s="7"/>
+      <c r="H56" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="5:8">
-      <c r="E55" s="1" t="s">
+    <row r="57" spans="5:8">
+      <c r="E57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="8" t="s">
+      <c r="G57" s="7"/>
+      <c r="H57" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="5:8">
-      <c r="H56" s="1" t="s">
+    <row r="58" spans="5:8">
+      <c r="H58" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="5:8">
-      <c r="E77" s="1" t="s">
+    <row r="79" spans="5:8">
+      <c r="E79" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="5:8">
-      <c r="E78" s="1" t="s">
+    <row r="80" spans="5:8">
+      <c r="E80" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H55" r:id="rId1"/>
+    <hyperlink ref="H57" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="statistics" sheetId="2" r:id="rId1"/>
+    <sheet name="homework" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -151,6 +152,122 @@
   </si>
   <si>
     <t>Yinuo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesson 20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">topic </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>programming practice: NTUC supermarket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">source code </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_0032_practice_boolean_operator_nested_if_else_supermarket.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1035_time_module_1.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>homework</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) Mandatory task</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type and run 1035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish 0032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) Challenging Questions:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目019：一个数如果恰好等于它的因子之和，这个数就称为"完数"。例如6=1＋2＋3.编程找出1000以内的所有完数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesson 21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve Recursive Algorithm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memorized Dynamic Programming Algorithm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom-up Dynamic Programming Algorithm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1037_algo_recursion_fibonacci.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1038_algo_recursion_fibonacci_memorized_dp.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1039_algo_fibonacci_bottom_up_dp.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1035_time_module_1.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1036_practice_perfect_number_019.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>homework</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Mandatory task: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type and run 1035 / 1037 / 1038 / 1039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) Challenging Question:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower of Hanoi 1040</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -269,6 +386,9 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -293,13 +413,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>409020</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>75648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -617,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1128,127 +1248,133 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3">
+        <v>20</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1">
+      <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="3">
-        <f>SUM(B2:B21)</f>
-        <v>310</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" ref="C22:I22" si="0">SUM(C2:C21)</f>
+      <c r="B23" s="3">
+        <f>SUM(B2:B22)</f>
+        <v>330</v>
+      </c>
+      <c r="C23" s="3">
+        <f>SUM(C2:C22)</f>
+        <v>240</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23:I23" si="0">SUM(D2:D21)</f>
+        <v>60</v>
+      </c>
+      <c r="E23" s="3">
+        <f>SUM(E2:E22)</f>
         <v>220</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="F23" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3">
-        <v>100</v>
-      </c>
-      <c r="C23" s="3">
-        <v>100</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-    </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3">
+        <v>100</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3">
-        <f>B22-B23</f>
-        <v>210</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" ref="C24:I24" si="1">C22-C23</f>
+      <c r="B25" s="3">
+        <f>B23-B24</f>
+        <v>230</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:I25" si="1">C23-C24</f>
+        <v>140</v>
+      </c>
+      <c r="D25" s="3">
+        <f>D23-D24</f>
+        <v>60</v>
+      </c>
+      <c r="E25" s="3">
+        <f>E23-E24</f>
         <v>120</v>
       </c>
-      <c r="D24" s="3">
-        <f>D22-D23</f>
-        <v>60</v>
-      </c>
-      <c r="E24" s="3">
-        <f>E22-E23</f>
-        <v>100</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2">
-        <v>44087</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="3">
-        <v>100</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="F30" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1256,103 +1382,276 @@
         <v>44087</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C31" s="3">
         <v>100</v>
       </c>
+      <c r="D31" s="7"/>
       <c r="F31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="F32" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="F33" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="F34" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="F35" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="2">
+    <row r="36" spans="1:21">
+      <c r="A36" s="2">
         <v>44128</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C36" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U35" s="2" t="s">
+      <c r="U36" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
-      <c r="F36" s="2" t="s">
+    <row r="37" spans="1:21">
+      <c r="F37" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
-      <c r="F44" s="1" t="s">
+    <row r="45" spans="1:21">
+      <c r="F45" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="5:8">
-      <c r="E56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="57" spans="5:8">
       <c r="E57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8">
+      <c r="E58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="8" t="s">
+      <c r="G58" s="7"/>
+      <c r="H58" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="5:8">
-      <c r="H58" s="1" t="s">
+    <row r="59" spans="5:8">
+      <c r="H59" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="5:8">
-      <c r="E79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="80" spans="5:8">
       <c r="E80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8">
+      <c r="E81" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H57" r:id="rId1"/>
+    <hyperlink ref="H58" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="10" customFormat="1">
+      <c r="A2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="F10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1">
+      <c r="A16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="C23" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="C24" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="C25" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="13875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -268,6 +268,66 @@
   </si>
   <si>
     <t>Tower of Hanoi 1040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesson 22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>programming practice: Bouncing ball</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numpy module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>source code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>programming practice: Tower of Hanoi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1040_practice_algo_recursion_hanoi.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1041_practice_020_bouncing_ball.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1041_practice_020_bouncing_ball_buwei.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1042_numpy_array.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>homework</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Mandatory task: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type and run 1040 / 1041 / 1042</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Challenging Question: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number guessing game: 0049</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -413,13 +473,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>409020</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>75648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -737,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1269,127 +1329,135 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1">
+      <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="3">
-        <f>SUM(B2:B22)</f>
-        <v>330</v>
-      </c>
-      <c r="C23" s="3">
-        <f>SUM(C2:C22)</f>
-        <v>240</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" ref="D23:I23" si="0">SUM(D2:D21)</f>
+      <c r="B24" s="3">
+        <f>SUM(B2:B23)</f>
+        <v>350</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C2:C23)</f>
+        <v>260</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:I24" si="0">SUM(D2:D21)</f>
         <v>60</v>
       </c>
-      <c r="E23" s="3">
-        <f>SUM(E2:E22)</f>
-        <v>220</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E24" s="3">
+        <f>SUM(E2:E23)</f>
+        <v>230</v>
+      </c>
+      <c r="F24" s="3">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I24" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3">
-        <v>100</v>
-      </c>
-      <c r="C24" s="3">
-        <v>100</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-    </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>100</v>
+      </c>
+      <c r="C25" s="3">
+        <v>100</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>100</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3">
-        <f>B23-B24</f>
-        <v>230</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" ref="C25:I25" si="1">C23-C24</f>
-        <v>140</v>
-      </c>
-      <c r="D25" s="3">
-        <f>D23-D24</f>
+      <c r="B26" s="3">
+        <f>B24-B25</f>
+        <v>250</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:I26" si="1">C24-C25</f>
+        <v>160</v>
+      </c>
+      <c r="D26" s="3">
+        <f>D24-D25</f>
         <v>60</v>
       </c>
-      <c r="E25" s="3">
-        <f>E23-E24</f>
-        <v>120</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E26" s="3">
+        <f>E24-E25</f>
+        <v>130</v>
+      </c>
+      <c r="F26" s="3">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I26" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2">
-        <v>44087</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="3">
-        <v>100</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="F31" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1397,100 +1465,115 @@
         <v>44087</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C32" s="3">
         <v>100</v>
       </c>
+      <c r="D32" s="7"/>
       <c r="F32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="F33" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="F36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="2">
+    <row r="37" spans="1:21">
+      <c r="A37" s="2">
         <v>44128</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C37" s="3">
         <v>100</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U36" s="2" t="s">
+      <c r="U37" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
-      <c r="F37" s="2" t="s">
+    <row r="38" spans="1:21">
+      <c r="F38" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
-      <c r="F45" s="1" t="s">
+    <row r="46" spans="1:21">
+      <c r="F46" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="5:8">
-      <c r="E57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="58" spans="5:8">
       <c r="E58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8">
+      <c r="E59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="8" t="s">
+      <c r="G59" s="7"/>
+      <c r="H59" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="5:8">
-      <c r="H59" s="1" t="s">
+    <row r="60" spans="5:8">
+      <c r="H60" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="5:8">
-      <c r="E80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="81" spans="5:8">
       <c r="E81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8">
+      <c r="E82" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H58" r:id="rId1"/>
+    <hyperlink ref="H59" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1500,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1649,6 +1732,74 @@
         <v>66</v>
       </c>
     </row>
+    <row r="32" spans="1:6" s="10" customFormat="1">
+      <c r="A32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="C34" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="C35" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="C38" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="C40" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="C43" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="13875" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="13875"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,42 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>作业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">由于时间的关系，范老师在recursive algo 这个题目上，还有一道题没有讲完。所以把这道题也作为这周的作业。 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/tomboxfan/PythonExample/tree/master/exercise</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把这些代码一个字一个字的敲下来，运行。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>challenging question</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mandatory task</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用两种方式来实现fibonacci数列。递归和非递归。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归实现 https://github.com/tomboxfan/PythonExample/blob/master/exercise/python_1016_algo_recursion_flatten_list.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（选做）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Yinuo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -329,6 +293,114 @@
   <si>
     <t>Number guessing game: 0049</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natalie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numpy module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3 dimensional array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">matplotlib drawing linear function </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">source code </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1042_numpy_array.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1043_numpy_arange.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1044_numpy_array_math.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1056_matplotlib_pyplot_math_linear_function.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">homework </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Mandatory task </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) Challenging Question</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子第一天摘下若干个桃子，当即吃了一半，还不瘾，又多吃了一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type and run 1042 / 1043 / 1044 / 1056</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二天早上又将剩下的桃子吃掉一半，又多吃了一个。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后每天早上都吃了前一天剩下的一半零一个。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>求第一天共摘了多少。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目021：猴子吃桃问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到第10天早上想再吃时，见只剩下一个桃子了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目022：两个乒乓球队进行比赛，各出三人。</t>
+  </si>
+  <si>
+    <t>甲队为a,b,c三人，乙队为x,y,z三人。</t>
+  </si>
+  <si>
+    <t>已抽签决定比赛名单。有人向队员打听比赛的名单。</t>
+  </si>
+  <si>
+    <t>a说他不和x比，c说他不和x,z比，请编程序找出三队赛手的名单。</t>
   </si>
 </sst>
 </file>
@@ -339,7 +411,7 @@
     <numFmt numFmtId="176" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +445,13 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
@@ -420,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -449,6 +528,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -471,20 +551,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409020</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>75648</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -497,8 +577,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5334000" y="12573000"/>
-          <a:ext cx="4438095" cy="4419048"/>
+          <a:off x="3771900" y="8915401"/>
+          <a:ext cx="1743075" cy="2324100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -797,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1331,7 +1411,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>44179</v>
+        <v>44184</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
@@ -1352,127 +1432,135 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B24" s="3">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1">
+      <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="3">
-        <f>SUM(B2:B23)</f>
-        <v>350</v>
-      </c>
-      <c r="C24" s="3">
-        <f>SUM(C2:C23)</f>
-        <v>260</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" ref="D24:I24" si="0">SUM(D2:D21)</f>
+      <c r="B25" s="3">
+        <f>SUM(B2:B24)</f>
+        <v>370</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:I25" si="0">SUM(C2:C24)</f>
+        <v>280</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E24" s="3">
-        <f>SUM(E2:E23)</f>
-        <v>230</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G24" s="3">
+        <v>250</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <f t="shared" si="0"/>
-        <v>290</v>
-      </c>
-      <c r="I24" s="3">
+        <v>320</v>
+      </c>
+      <c r="I25" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>100</v>
-      </c>
-      <c r="C25" s="3">
-        <v>100</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>100</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-    </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3">
+        <v>100</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
-        <f>B24-B25</f>
+      <c r="B27" s="3">
+        <f>B25-B26</f>
+        <v>270</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" ref="C27" si="1">C25-C26</f>
+        <v>180</v>
+      </c>
+      <c r="D27" s="3">
+        <f>D25-D26</f>
+        <v>60</v>
+      </c>
+      <c r="E27" s="3">
+        <f>E25-E26</f>
+        <v>150</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" ref="F27:I27" si="2">F25-F26</f>
         <v>250</v>
       </c>
-      <c r="C26" s="3">
-        <f t="shared" ref="C26:I26" si="1">C24-C25</f>
-        <v>160</v>
-      </c>
-      <c r="D26" s="3">
-        <f>D24-D25</f>
-        <v>60</v>
-      </c>
-      <c r="E26" s="3">
-        <f>E24-E25</f>
-        <v>130</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="1"/>
-        <v>290</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" si="1"/>
+      <c r="G27" s="3">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="4" t="s">
+      <c r="H27" s="3">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2">
-        <v>44087</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="3">
-        <v>100</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="F32" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -1480,324 +1568,445 @@
         <v>44087</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3">
         <v>100</v>
       </c>
+      <c r="D33" s="7"/>
       <c r="F33" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3">
+        <v>100</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="F34" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="F35" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="F37" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="2">
+    <row r="38" spans="1:21">
+      <c r="A38" s="2">
         <v>44128</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="3">
         <v>100</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="U38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
-      <c r="F38" s="2" t="s">
+    <row r="39" spans="1:21">
+      <c r="F39" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
-      <c r="F46" s="1" t="s">
+    <row r="41" spans="1:21">
+      <c r="A41" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="I42" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="I45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="F47" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="5:8">
-      <c r="E58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="5:8">
-      <c r="E59" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="48" spans="1:21">
+      <c r="I48" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8">
       <c r="G59" s="7"/>
-      <c r="H59" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="5:8">
-      <c r="H60" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="5:8">
-      <c r="E81" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="5:8">
-      <c r="E82" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>35</v>
-      </c>
+    </row>
+    <row r="60" spans="7:8">
+      <c r="G60" s="7"/>
+      <c r="H60" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H59" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F43"/>
+  <dimension ref="A2:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="9" style="9"/>
+    <col min="1" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" s="10" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="F10" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1">
       <c r="A16" s="10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="C18" s="9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="C24" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="C25" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="10" customFormat="1">
       <c r="A32" s="10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="C34" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="C35" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="C38" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="C39" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="C40" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="C43" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="10" customFormat="1">
+      <c r="A46" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="9" t="s">
+    </row>
+    <row r="49" spans="1:6">
+      <c r="C49" s="9" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="C52" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="C53" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="C54" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="C57" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="F58" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="F59" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="F60" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="F61" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="F62" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="F64" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2020-12-05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">topic </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2020-12-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Naïve Recursive Algorithm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -239,10 +231,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2020-12-19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>programming practice: Bouncing ball</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -295,10 +283,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2020-12-26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>J组</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -401,6 +385,18 @@
   </si>
   <si>
     <t>a说他不和x比，c说他不和x,z比，请编程序找出三队赛手的名单。</t>
+  </si>
+  <si>
+    <t>lesson 23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan 2nd 2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解顺序 0057，1057，1058，1059，1060</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -553,13 +549,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -877,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1455,127 +1451,137 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <v>20</v>
+      </c>
+      <c r="G25" s="3">
+        <v>20</v>
+      </c>
+      <c r="H25" s="3">
+        <v>20</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1">
+      <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="3">
-        <f>SUM(B2:B24)</f>
-        <v>370</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" ref="C25:I25" si="0">SUM(C2:C24)</f>
-        <v>280</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
+      <c r="B26" s="3">
+        <f>SUM(B2:B25)</f>
+        <v>390</v>
+      </c>
+      <c r="C26" s="3">
+        <f>SUM(C2:C25)</f>
+        <v>300</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:I26" si="0">SUM(D2:D24)</f>
         <v>60</v>
       </c>
-      <c r="E25" s="3">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="E26" s="3">
+        <f>SUM(E2:E25)</f>
+        <v>260</v>
+      </c>
+      <c r="F26" s="3">
+        <f>SUM(F2:F25)</f>
+        <v>270</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H25" s="3">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="H26" s="3">
+        <f>SUM(H2:H25)</f>
+        <v>340</v>
+      </c>
+      <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <v>100</v>
-      </c>
-      <c r="C26" s="3">
-        <v>100</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-    </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3">
+        <v>100</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
-        <f>B25-B26</f>
+      <c r="B28" s="3">
+        <f>B26-B27</f>
+        <v>290</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" ref="C28" si="1">C26-C27</f>
+        <v>200</v>
+      </c>
+      <c r="D28" s="3">
+        <f>D26-D27</f>
+        <v>60</v>
+      </c>
+      <c r="E28" s="3">
+        <f>E26-E27</f>
+        <v>160</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" ref="F28:I28" si="2">F26-F27</f>
         <v>270</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" ref="C27" si="1">C25-C26</f>
-        <v>180</v>
-      </c>
-      <c r="D27" s="3">
-        <f>D25-D26</f>
-        <v>60</v>
-      </c>
-      <c r="E27" s="3">
-        <f>E25-E26</f>
-        <v>150</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" ref="F27:I27" si="2">F25-F26</f>
-        <v>250</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="G28" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <f t="shared" si="2"/>
-        <v>320</v>
-      </c>
-      <c r="I27" s="3">
+        <v>340</v>
+      </c>
+      <c r="I28" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:21">
+      <c r="A33" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="2">
-        <v>44087</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="3">
-        <v>100</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="F33" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -1583,89 +1589,104 @@
         <v>44087</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C34" s="3">
         <v>100</v>
       </c>
+      <c r="D34" s="7"/>
       <c r="F34" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="F35" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="F38" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="2">
+    <row r="39" spans="1:21">
+      <c r="A39" s="2">
         <v>44128</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C39" s="3">
         <v>100</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U38" s="2" t="s">
+      <c r="U39" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
-      <c r="F39" s="2" t="s">
+    <row r="40" spans="1:21">
+      <c r="F40" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="2">
+    <row r="42" spans="1:21">
+      <c r="A42" s="2">
         <v>44189</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="B42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
-      <c r="I42" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="I45" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="F47" s="1" t="s">
+    <row r="43" spans="1:21">
+      <c r="I43" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="I46" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="F48" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
-      <c r="I48" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="7:8">
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="7:8">
+    <row r="49" spans="7:9">
+      <c r="I49" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9">
       <c r="G60" s="7"/>
-      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="7:9">
+      <c r="G61" s="7"/>
+      <c r="H61" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1677,16 +1698,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F67"/>
+  <dimension ref="A2:Q71"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+    <sheetView topLeftCell="G61" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="9" customWidth="1"/>
     <col min="4" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -1694,319 +1715,324 @@
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="F10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1">
       <c r="A16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="C18" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="C24" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="C25" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="10" customFormat="1">
       <c r="A32" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>59</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="C34" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="C35" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="C38" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="C39" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="C40" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="C43" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="10" customFormat="1">
       <c r="A46" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>73</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="C48" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="C49" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="C52" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="C53" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="C54" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="C57" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="F58" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="F59" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="F60" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="F61" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="F62" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="F64" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="F65" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="F66" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="F67" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="10" customFormat="1">
+      <c r="A70" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" s="9" t="s">
+      <c r="C70" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="6:6">
-      <c r="F66" s="9" t="s">
+    <row r="71" spans="1:17">
+      <c r="Q71" s="9" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6">
-      <c r="F67" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/HomeworkScore.xlsx
+++ b/HomeworkScore.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>Yifan</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,9 +69,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>缺课</t>
-  </si>
-  <si>
     <t>Vincent = Tianhao</t>
   </si>
   <si>
@@ -395,7 +392,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>讲解顺序 0057，1057，1058，1059，1060</t>
+    <t>matplotlib</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quadratic function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exponential function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logarithmic function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>math module</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1057_matplotlib_pyplot_math_quadratic_function.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1058_matplotlib_pyplot_math_exponential_function.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1059_matplotlib_pyplot_math_Logarithmic_function.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_1060_library_math.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>python_0057_practice_monkey_eat_peaches.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type and run 1057 / 1058 / 1059 / 1060</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if you worked out a solution to 0057, ignore it. Otherwise, try to do it again based on the memory of my explanation of the logic.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) Challening Question</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhance 0049, introduce try_limit whose value is round(math.log2(upper - lower))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -549,13 +598,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -873,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -892,7 +941,7 @@
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -919,7 +968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -936,7 +985,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -959,7 +1008,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -980,7 +1029,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1052,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>44044</v>
       </c>
@@ -1030,7 +1079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>44051</v>
       </c>
@@ -1057,7 +1106,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>44058</v>
       </c>
@@ -1070,7 +1119,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>44065</v>
       </c>
@@ -1093,7 +1142,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>44072</v>
       </c>
@@ -1112,7 +1161,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>44079</v>
       </c>
@@ -1132,11 +1181,8 @@
         <v>20</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>44086</v>
       </c>
@@ -1163,7 +1209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>44093</v>
       </c>
@@ -1190,7 +1236,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>44121</v>
       </c>
@@ -1219,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>44128</v>
       </c>
@@ -1248,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>44135</v>
       </c>
@@ -1469,134 +1515,144 @@
         <v>20</v>
       </c>
       <c r="G25" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3">
         <v>20</v>
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B26" s="3">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3">
+        <v>20</v>
+      </c>
+      <c r="H26" s="3">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1">
+      <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="3">
-        <f>SUM(B2:B25)</f>
-        <v>390</v>
-      </c>
-      <c r="C26" s="3">
-        <f>SUM(C2:C25)</f>
-        <v>300</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" ref="D26:I26" si="0">SUM(D2:D24)</f>
+      <c r="B27" s="3">
+        <f>SUM(B2:B26)</f>
+        <v>410</v>
+      </c>
+      <c r="C27" s="3">
+        <f>SUM(C2:C26)</f>
+        <v>320</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" ref="D27" si="0">SUM(D2:D24)</f>
         <v>60</v>
       </c>
-      <c r="E26" s="3">
-        <f>SUM(E2:E25)</f>
-        <v>260</v>
-      </c>
-      <c r="F26" s="3">
-        <f>SUM(F2:F25)</f>
-        <v>270</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="H26" s="3">
-        <f>SUM(H2:H25)</f>
-        <v>340</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" si="0"/>
+      <c r="E27" s="3">
+        <f>SUM(E2:E26)</f>
+        <v>280</v>
+      </c>
+      <c r="F27" s="3">
+        <f>SUM(F2:F26)</f>
+        <v>290</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ref="G27:I27" si="1">SUM(G2:G25)</f>
+        <v>160</v>
+      </c>
+      <c r="H27" s="3">
+        <f>SUM(H2:H26)</f>
+        <v>360</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="1"/>
         <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3">
-        <v>100</v>
-      </c>
-      <c r="C27" s="3">
-        <v>100</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3">
-        <f>B26-B27</f>
+        <v>100</v>
+      </c>
+      <c r="C28" s="3">
+        <v>100</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>100</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>100</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B27-B28</f>
+        <v>310</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" ref="C29" si="2">C27-C28</f>
+        <v>220</v>
+      </c>
+      <c r="D29" s="3">
+        <f>D27-D28</f>
+        <v>60</v>
+      </c>
+      <c r="E29" s="3">
+        <f>E27-E28</f>
+        <v>180</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" ref="F29:I29" si="3">F27-F28</f>
         <v>290</v>
       </c>
-      <c r="C28" s="3">
-        <f t="shared" ref="C28" si="1">C26-C27</f>
-        <v>200</v>
-      </c>
-      <c r="D28" s="3">
-        <f>D26-D27</f>
+      <c r="G29" s="3">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="E28" s="3">
-        <f>E26-E27</f>
-        <v>160</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" ref="F28:I28" si="2">F26-F27</f>
-        <v>270</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="2"/>
+      <c r="H29" s="3">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H28" s="3">
-        <f t="shared" si="2"/>
-        <v>340</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="2">
-        <v>44087</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="3">
-        <v>100</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="F34" s="2" t="s">
-        <v>17</v>
+      <c r="A34" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -1604,89 +1660,104 @@
         <v>44087</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3">
         <v>100</v>
       </c>
+      <c r="D35" s="7"/>
       <c r="F35" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:21">
+      <c r="A36" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="3">
+        <v>100</v>
+      </c>
       <c r="F36" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:21">
       <c r="F38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="F39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="2">
+        <v>44128</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="3">
+        <v>100</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="2">
-        <v>44128</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="U40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="F41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="3">
         <v>100</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="F40" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="2">
-        <v>44189</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="I43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:21">
+      <c r="I44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="I47" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
-      <c r="I46" s="1" t="s">
+    <row r="49" spans="6:9">
+      <c r="F49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9">
+      <c r="I50" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
-      <c r="F48" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="7:9">
-      <c r="I49" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="7:9">
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="7:9">
+    <row r="61" spans="6:9">
       <c r="G61" s="7"/>
-      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="6:9">
+      <c r="G62" s="7"/>
+      <c r="H62" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1698,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q71"/>
+  <dimension ref="A2:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="G61" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1713,326 +1784,401 @@
   <sheetData>
     <row r="2" spans="1:6" s="10" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="F10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1">
       <c r="A16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="C18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="C24" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="C25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="10" customFormat="1">
       <c r="A32" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="C34" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="C35" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="C38" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="C39" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="C40" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="C43" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="10" customFormat="1">
       <c r="A46" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="C48" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="C49" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="C52" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="C53" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="C54" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="F56" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="C57" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="F58" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="F59" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="F60" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="F61" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="F62" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="F64" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="F65" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
-      <c r="F65" s="9" t="s">
+    <row r="66" spans="1:6">
+      <c r="F66" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
-      <c r="F66" s="9" t="s">
+    <row r="67" spans="1:6">
+      <c r="F67" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
-      <c r="F67" s="9" t="s">
+    <row r="70" spans="1:6" s="10" customFormat="1">
+      <c r="A70" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" s="10" customFormat="1">
-      <c r="A70" s="10" t="s">
+      <c r="C70" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="11" t="s">
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
-      <c r="Q71" s="9" t="s">
+    <row r="72" spans="1:6">
+      <c r="C72" s="9" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="C73" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="C74" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="C75" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="C78" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="C79" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="C80" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="C81" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="F84" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="C85" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
